--- a/raw_data/20200818_saline/20200818_Sensor3_Test_82.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_82.xlsx
@@ -1,900 +1,1316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846E4D5-4FC8-4319-AB25-5AEB936DD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>73459.336737</v>
+        <v>73459.336737000005</v>
       </c>
       <c r="B2" s="1">
-        <v>20.405371</v>
+        <v>20.405370999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.890000</v>
+        <v>1149.8900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-250.598000</v>
+        <v>-250.59800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>73470.047843</v>
+        <v>73470.047842999993</v>
       </c>
       <c r="G2" s="1">
-        <v>20.408347</v>
+        <v>20.408346999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.750000</v>
+        <v>1169.75</v>
       </c>
       <c r="I2" s="1">
-        <v>-211.301000</v>
+        <v>-211.30099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>73480.484166</v>
+        <v>73480.484165999995</v>
       </c>
       <c r="L2" s="1">
-        <v>20.411246</v>
+        <v>20.411245999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.070000</v>
+        <v>1197.07</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.514000</v>
+        <v>-148.51400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>73490.710680</v>
+        <v>73490.710680000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.414086</v>
+        <v>20.414086000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.465000</v>
+        <v>-127.465</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>73501.303738</v>
+        <v>73501.303738000002</v>
       </c>
       <c r="V2" s="1">
-        <v>20.417029</v>
+        <v>20.417028999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.240000</v>
+        <v>1213.24</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.435000</v>
+        <v>-107.435</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>73511.451388</v>
+        <v>73511.451388000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.419848</v>
+        <v>20.419848000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.083100</v>
+        <v>-91.083100000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>73521.648677</v>
+        <v>73521.648677000005</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.422680</v>
+        <v>20.42268</v>
       </c>
       <c r="AG2" s="1">
-        <v>1226.370000</v>
+        <v>1226.3699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.710300</v>
+        <v>-86.710300000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>73532.110968</v>
+        <v>73532.110967999994</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.425586</v>
+        <v>20.425585999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1233.930000</v>
+        <v>1233.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.152100</v>
+        <v>-90.152100000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>73542.685459</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.428524</v>
+        <v>20.428523999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1242.090000</v>
+        <v>1242.0899999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.069000</v>
+        <v>-102.069</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>73553.725910</v>
+        <v>73553.725909999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.431591</v>
+        <v>20.431591000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.426000</v>
+        <v>-121.426</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>73564.889366</v>
+        <v>73564.889366000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.434691</v>
+        <v>20.434691000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.911000</v>
+        <v>-138.911</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>73575.879223</v>
+        <v>73575.879222999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.437744</v>
+        <v>20.437743999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1301.630000</v>
+        <v>1301.6300000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.711000</v>
+        <v>-220.71100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>73586.516953</v>
+        <v>73586.516952999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.440699</v>
+        <v>20.440698999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.150000</v>
+        <v>1372.15</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.426000</v>
+        <v>-356.42599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>73598.378251</v>
+        <v>73598.378251000002</v>
       </c>
       <c r="BO2" s="1">
         <v>20.443994</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.810000</v>
+        <v>1487.81</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.618000</v>
+        <v>-576.61800000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>73609.883946</v>
+        <v>73609.883946000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.447190</v>
+        <v>20.447189999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1621.380000</v>
+        <v>1621.38</v>
       </c>
       <c r="BV2" s="1">
-        <v>-823.740000</v>
+        <v>-823.74</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>73620.586282</v>
+        <v>73620.586282000004</v>
       </c>
       <c r="BY2" s="1">
         <v>20.450163</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.590000</v>
+        <v>1774.59</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.140000</v>
+        <v>-1092.1400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>73631.981213</v>
+        <v>73631.981213000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.453328</v>
+        <v>20.453327999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.470000</v>
+        <v>2192.4699999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1736.360000</v>
+        <v>-1736.36</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>73460.015792</v>
+        <v>73460.015792000006</v>
       </c>
       <c r="B3" s="1">
-        <v>20.405560</v>
+        <v>20.405560000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.740000</v>
+        <v>1149.74</v>
       </c>
       <c r="D3" s="1">
-        <v>-250.474000</v>
+        <v>-250.47399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>73470.461012</v>
       </c>
       <c r="G3" s="1">
-        <v>20.408461</v>
+        <v>20.408460999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.590000</v>
+        <v>1169.5899999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-210.989000</v>
+        <v>-210.989</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>73480.830869</v>
+        <v>73480.830868999998</v>
       </c>
       <c r="L3" s="1">
-        <v>20.411342</v>
+        <v>20.411342000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1197.400000</v>
+        <v>1197.4000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.599000</v>
+        <v>-148.59899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>73491.059863</v>
+        <v>73491.059863000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.414183</v>
+        <v>20.414183000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.491000</v>
+        <v>-127.491</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>73501.688151</v>
+        <v>73501.688150999995</v>
       </c>
       <c r="V3" s="1">
-        <v>20.417136</v>
+        <v>20.417135999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.160000</v>
+        <v>1213.1600000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.609000</v>
+        <v>-107.60899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>73511.798092</v>
+        <v>73511.798091999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.419944</v>
+        <v>20.419944000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.026500</v>
+        <v>-91.026499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>73522.084649</v>
+        <v>73522.084648999997</v>
       </c>
       <c r="AF3" s="1">
         <v>20.422801</v>
       </c>
       <c r="AG3" s="1">
-        <v>1226.360000</v>
+        <v>1226.3599999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.725600</v>
+        <v>-86.7256</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>73532.519489</v>
+        <v>73532.519488999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.425700</v>
+        <v>20.425699999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.142900</v>
+        <v>-90.142899999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>73543.114040</v>
+        <v>73543.11404</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.428643</v>
+        <v>20.428643000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.111000</v>
+        <v>-102.111</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>73554.095924</v>
+        <v>73554.095923999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.431693</v>
+        <v>20.431692999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.451000</v>
+        <v>-121.45099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>73565.279222</v>
+        <v>73565.279221999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.434800</v>
+        <v>20.434799999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.902000</v>
+        <v>-138.90199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>73576.245272</v>
@@ -903,739 +1319,739 @@
         <v>20.437846</v>
       </c>
       <c r="BF3" s="1">
-        <v>1301.630000</v>
+        <v>1301.6300000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.707000</v>
+        <v>-220.70699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>73587.273816</v>
+        <v>73587.273816000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.440909</v>
+        <v>20.440909000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.150000</v>
+        <v>1372.15</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.484000</v>
+        <v>-356.48399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>73598.821177</v>
+        <v>73598.821177000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.444117</v>
+        <v>20.444116999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.890000</v>
+        <v>1487.89</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.613000</v>
+        <v>-576.61300000000006</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>73610.382425</v>
+        <v>73610.382425000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.447328</v>
+        <v>20.447327999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1621.250000</v>
+        <v>1621.25</v>
       </c>
       <c r="BV3" s="1">
-        <v>-823.618000</v>
+        <v>-823.61800000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>73621.071708</v>
+        <v>73621.071708000003</v>
       </c>
       <c r="BY3" s="1">
         <v>20.450298</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.580000</v>
+        <v>1774.58</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.000000</v>
+        <v>-1092</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>73632.852720</v>
+        <v>73632.852719999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.453570</v>
+        <v>20.453569999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.850000</v>
+        <v>2192.85</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1736.560000</v>
+        <v>-1736.56</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>73460.374864</v>
+        <v>73460.374863999998</v>
       </c>
       <c r="B4" s="1">
-        <v>20.405660</v>
+        <v>20.405660000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D4" s="1">
-        <v>-250.678000</v>
+        <v>-250.678</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>73470.801266</v>
+        <v>73470.801265999995</v>
       </c>
       <c r="G4" s="1">
-        <v>20.408556</v>
+        <v>20.408556000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.730000</v>
+        <v>1169.73</v>
       </c>
       <c r="I4" s="1">
-        <v>-210.795000</v>
+        <v>-210.79499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>73481.176085</v>
+        <v>73481.176084999999</v>
       </c>
       <c r="L4" s="1">
         <v>20.411438</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.260000</v>
+        <v>1197.26</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.545000</v>
+        <v>-148.54499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>73491.409575</v>
+        <v>73491.409574999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.414280</v>
+        <v>20.414280000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.514000</v>
+        <v>-127.514</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>73502.113718</v>
+        <v>73502.113717999993</v>
       </c>
       <c r="V4" s="1">
         <v>20.417254</v>
       </c>
       <c r="W4" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.547000</v>
+        <v>-107.547</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>73512.252428</v>
+        <v>73512.252428000007</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.420070</v>
+        <v>20.420069999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.902600</v>
+        <v>-90.902600000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>73522.375310</v>
+        <v>73522.375310000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.422882</v>
+        <v>20.422882000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1226.400000</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.824300</v>
+        <v>-86.824299999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>73532.866168</v>
+        <v>73532.866167999993</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.425796</v>
+        <v>20.425795999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.149100</v>
+        <v>-90.149100000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>73543.473602</v>
+        <v>73543.473601999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.428743</v>
+        <v>20.428743000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.094000</v>
+        <v>-102.09399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>73554.460522</v>
+        <v>73554.460521999994</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.431795</v>
+        <v>20.431795000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>73565.992964</v>
+        <v>73565.992964000005</v>
       </c>
       <c r="AZ4" s="1">
         <v>20.434998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.906000</v>
+        <v>-138.90600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>73576.970956</v>
+        <v>73576.970956000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.438047</v>
+        <v>20.438047000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1301.610000</v>
+        <v>1301.6099999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.724000</v>
+        <v>-220.72399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>73587.677560</v>
+        <v>73587.677559999996</v>
       </c>
       <c r="BJ4" s="1">
         <v>20.441022</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.170000</v>
+        <v>1372.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.395000</v>
+        <v>-356.39499999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>73599.216984</v>
+        <v>73599.216983999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.444227</v>
+        <v>20.444227000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.840000</v>
+        <v>1487.84</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.613000</v>
+        <v>-576.61300000000006</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>73611.054507</v>
+        <v>73611.054506999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.447515</v>
+        <v>20.447514999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1621.240000</v>
+        <v>1621.24</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.731000</v>
+        <v>-823.73099999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>73621.842987</v>
+        <v>73621.842986999996</v>
       </c>
       <c r="BY4" s="1">
         <v>20.450512</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.690000</v>
+        <v>1774.69</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.100000</v>
+        <v>-1092.0999999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>73633.067950</v>
+        <v>73633.067949999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.453630</v>
+        <v>20.45363</v>
       </c>
       <c r="CE4" s="1">
-        <v>2191.730000</v>
+        <v>2191.73</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1738.370000</v>
+        <v>-1738.37</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>73460.719089</v>
+        <v>73460.719089000006</v>
       </c>
       <c r="B5" s="1">
-        <v>20.405755</v>
+        <v>20.405754999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.660000</v>
+        <v>1149.6600000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-250.570000</v>
+        <v>-250.57</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>73471.144993</v>
+        <v>73471.144992999994</v>
       </c>
       <c r="G5" s="1">
-        <v>20.408651</v>
+        <v>20.408650999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.310000</v>
+        <v>1170.31</v>
       </c>
       <c r="I5" s="1">
-        <v>-211.206000</v>
+        <v>-211.20599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>73481.609589</v>
       </c>
       <c r="L5" s="1">
-        <v>20.411558</v>
+        <v>20.411557999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1197.540000</v>
+        <v>1197.54</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.642000</v>
+        <v>-148.642</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>73491.844535</v>
+        <v>73491.844534999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.414401</v>
+        <v>20.414401000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.618000</v>
+        <v>-127.61799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>73502.404856</v>
+        <v>73502.404855999994</v>
       </c>
       <c r="V5" s="1">
-        <v>20.417335</v>
+        <v>20.417335000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.240000</v>
+        <v>1213.24</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.408000</v>
+        <v>-107.408</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>73512.488029</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.420136</v>
+        <v>20.420135999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1221.250000</v>
+        <v>1221.25</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.142400</v>
+        <v>-91.142399999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>73522.719502</v>
+        <v>73522.719502000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.422978</v>
+        <v>20.422978000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1226.390000</v>
+        <v>1226.3900000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.715500</v>
+        <v>-86.715500000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>73533.217824</v>
+        <v>73533.217824000007</v>
       </c>
       <c r="AK5" s="1">
         <v>20.425894</v>
       </c>
       <c r="AL5" s="1">
-        <v>1233.910000</v>
+        <v>1233.9100000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.161600</v>
+        <v>-90.161600000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>73543.843618</v>
+        <v>73543.843617999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.428845</v>
+        <v>20.428844999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1242.130000</v>
+        <v>1242.1300000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>73555.188115</v>
+        <v>73555.188114999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.431997</v>
+        <v>20.431996999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>73566.351076</v>
+        <v>73566.351076000006</v>
       </c>
       <c r="AZ5" s="1">
         <v>20.435098</v>
       </c>
       <c r="BA5" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.892000</v>
+        <v>-138.892</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>73577.357303</v>
+        <v>73577.357302999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.438155</v>
+        <v>20.438154999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1301.640000</v>
+        <v>1301.6400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>73588.051543</v>
+        <v>73588.051542999994</v>
       </c>
       <c r="BJ5" s="1">
         <v>20.441125</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.180000</v>
+        <v>1372.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.459000</v>
+        <v>-356.459</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>73599.961481</v>
+        <v>73599.961481000006</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.444434</v>
+        <v>20.444434000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.870000</v>
+        <v>1487.87</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.640000</v>
+        <v>-576.64</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>73611.184494</v>
+        <v>73611.184494000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.447551</v>
+        <v>20.447551000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1621.110000</v>
+        <v>1621.11</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.665000</v>
+        <v>-823.66499999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>73621.972475</v>
+        <v>73621.972475000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.450548</v>
+        <v>20.450548000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.610000</v>
+        <v>1774.61</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1091.890000</v>
+        <v>-1091.8900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>73633.585275</v>
+        <v>73633.585275000005</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.453774</v>
+        <v>20.453773999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2191.410000</v>
+        <v>2191.41</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1737.910000</v>
+        <v>-1737.91</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>73461.066783</v>
+        <v>73461.066783000002</v>
       </c>
       <c r="B6" s="1">
-        <v>20.405852</v>
+        <v>20.405851999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.820000</v>
+        <v>1149.82</v>
       </c>
       <c r="D6" s="1">
-        <v>-250.457000</v>
+        <v>-250.45699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>73471.571057</v>
+        <v>73471.571056999994</v>
       </c>
       <c r="G6" s="1">
-        <v>20.408770</v>
+        <v>20.408770000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.220000</v>
+        <v>1170.22</v>
       </c>
       <c r="I6" s="1">
-        <v>-211.241000</v>
+        <v>-211.24100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>73481.889331</v>
+        <v>73481.889330999998</v>
       </c>
       <c r="L6" s="1">
-        <v>20.411636</v>
+        <v>20.411636000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1197.260000</v>
+        <v>1197.26</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.856000</v>
+        <v>-148.85599999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>73492.123286</v>
+        <v>73492.123286000002</v>
       </c>
       <c r="Q6" s="1">
         <v>20.414479</v>
       </c>
       <c r="R6" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.600000</v>
+        <v>-127.6</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>73502.751560</v>
+        <v>73502.751560000004</v>
       </c>
       <c r="V6" s="1">
-        <v>20.417431</v>
+        <v>20.417431000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.190000</v>
+        <v>1213.19</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.474000</v>
+        <v>-107.474</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>73512.839228</v>
+        <v>73512.839227999997</v>
       </c>
       <c r="AA6" s="1">
         <v>20.420233</v>
       </c>
       <c r="AB6" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.980100</v>
+        <v>-90.980099999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>73523.061742</v>
+        <v>73523.061742000005</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.423073</v>
+        <v>20.423072999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1226.450000</v>
+        <v>1226.45</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.678900</v>
+        <v>-86.678899999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>73533.914704</v>
+        <v>73533.914703999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.426087</v>
+        <v>20.426086999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.158000</v>
+        <v>-90.158000000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>73544.555872</v>
+        <v>73544.555871999997</v>
       </c>
       <c r="AP6" s="1">
         <v>20.429043</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1242.100000</v>
+        <v>1242.0999999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.063000</v>
+        <v>-102.063</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>73555.578962</v>
@@ -1644,437 +2060,437 @@
         <v>20.432105</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.290000</v>
+        <v>1252.29</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.416000</v>
+        <v>-121.416</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>73566.711204</v>
+        <v>73566.711204000007</v>
       </c>
       <c r="AZ6" s="1">
         <v>20.435198</v>
       </c>
       <c r="BA6" s="1">
-        <v>1260.910000</v>
+        <v>1260.9100000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.922000</v>
+        <v>-138.922</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>73577.718916</v>
+        <v>73577.718915999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.438255</v>
+        <v>20.438255000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.736000</v>
+        <v>-220.73599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>73588.739990</v>
+        <v>73588.739990000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.441317</v>
+        <v>20.441317000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.150000</v>
+        <v>1372.15</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.454000</v>
+        <v>-356.45400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>73600.071441</v>
+        <v>73600.071440999993</v>
       </c>
       <c r="BO6" s="1">
         <v>20.444464</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.900000</v>
+        <v>1487.9</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.645000</v>
+        <v>-576.64499999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>73611.599608</v>
+        <v>73611.599608000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.447667</v>
+        <v>20.447666999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1621.020000</v>
+        <v>1621.02</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.748000</v>
+        <v>-823.74800000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>73622.395065</v>
+        <v>73622.395065000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.450665</v>
+        <v>20.450665000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.480000</v>
+        <v>1774.48</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.040000</v>
+        <v>-1092.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>73634.136331</v>
+        <v>73634.136331000002</v>
       </c>
       <c r="CD6" s="1">
         <v>20.453927</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.320000</v>
+        <v>2192.3200000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1736.760000</v>
+        <v>-1736.76</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>73461.497824</v>
+        <v>73461.497824000005</v>
       </c>
       <c r="B7" s="1">
-        <v>20.405972</v>
+        <v>20.405971999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.720000</v>
+        <v>1149.72</v>
       </c>
       <c r="D7" s="1">
-        <v>-250.913000</v>
+        <v>-250.91300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>73471.852289</v>
+        <v>73471.852289000002</v>
       </c>
       <c r="G7" s="1">
-        <v>20.408848</v>
+        <v>20.408847999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.380000</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-210.957000</v>
+        <v>-210.95699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>73482.233060</v>
+        <v>73482.233059999999</v>
       </c>
       <c r="L7" s="1">
         <v>20.411731</v>
       </c>
       <c r="M7" s="1">
-        <v>1197.170000</v>
+        <v>1197.17</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.526000</v>
+        <v>-148.52600000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>73492.473461</v>
+        <v>73492.473461000001</v>
       </c>
       <c r="Q7" s="1">
         <v>20.414576</v>
       </c>
       <c r="R7" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.563000</v>
+        <v>-127.563</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>73503.095784</v>
+        <v>73503.095784000005</v>
       </c>
       <c r="V7" s="1">
         <v>20.417527</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.397000</v>
+        <v>-107.39700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>73513.535082</v>
+        <v>73513.535082000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.420426</v>
+        <v>20.420425999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.320000</v>
+        <v>1221.32</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.065500</v>
+        <v>-91.0655</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>73523.748700</v>
+        <v>73523.748699999996</v>
       </c>
       <c r="AF7" s="1">
         <v>20.423264</v>
       </c>
       <c r="AG7" s="1">
-        <v>1226.430000</v>
+        <v>1226.43</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.678400</v>
+        <v>-86.678399999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>73534.262894</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.426184</v>
+        <v>20.426183999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1233.920000</v>
+        <v>1233.92</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.162300</v>
+        <v>-90.162300000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>73544.950192</v>
+        <v>73544.950192000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.429153</v>
+        <v>20.429152999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.101000</v>
+        <v>-102.101</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>73555.945043</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.432207</v>
+        <v>20.432206999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.401000</v>
+        <v>-121.401</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>73567.395650</v>
+        <v>73567.395650000006</v>
       </c>
       <c r="AZ7" s="1">
         <v>20.435388</v>
       </c>
       <c r="BA7" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.918000</v>
+        <v>-138.91800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>73578.175701</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.438382</v>
+        <v>20.438382000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1301.630000</v>
+        <v>1301.6300000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.693000</v>
+        <v>-220.69300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>73589.208710</v>
+        <v>73589.208710000006</v>
       </c>
       <c r="BJ7" s="1">
         <v>20.441447</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.130000</v>
+        <v>1372.13</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.443000</v>
+        <v>-356.44299999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>73600.458470</v>
+        <v>73600.458469999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.444572</v>
+        <v>20.444572000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.840000</v>
+        <v>1487.84</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.668000</v>
+        <v>-576.66800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>73612.013767</v>
+        <v>73612.013766999997</v>
       </c>
       <c r="BT7" s="1">
         <v>20.447782</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.890000</v>
+        <v>1620.89</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.739000</v>
+        <v>-823.73900000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>73622.819609</v>
+        <v>73622.819608999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.450783</v>
+        <v>20.450783000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.690000</v>
+        <v>1774.69</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.010000</v>
+        <v>-1092.01</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>73634.662618</v>
+        <v>73634.662618000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.454073</v>
+        <v>20.454073000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.990000</v>
+        <v>2191.9899999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1738.700000</v>
+        <v>-1738.7</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>73461.772590</v>
+        <v>73461.772589999993</v>
       </c>
       <c r="B8" s="1">
-        <v>20.406048</v>
+        <v>20.406047999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.560000</v>
+        <v>1149.56</v>
       </c>
       <c r="D8" s="1">
-        <v>-250.539000</v>
+        <v>-250.53899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>73472.188081</v>
       </c>
       <c r="G8" s="1">
-        <v>20.408941</v>
+        <v>20.408940999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.000000</v>
+        <v>1170</v>
       </c>
       <c r="I8" s="1">
-        <v>-210.509000</v>
+        <v>-210.50899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>73482.581251</v>
+        <v>73482.581250999996</v>
       </c>
       <c r="L8" s="1">
         <v>20.411828</v>
       </c>
       <c r="M8" s="1">
-        <v>1197.310000</v>
+        <v>1197.31</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.744000</v>
+        <v>-148.744</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>73492.833096</v>
+        <v>73492.833096000002</v>
       </c>
       <c r="Q8" s="1">
         <v>20.414676</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.550000</v>
+        <v>-127.55</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>73503.780262</v>
@@ -2083,677 +2499,677 @@
         <v>20.417717</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.528000</v>
+        <v>-107.52800000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>73513.882809</v>
+        <v>73513.882809000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.420523</v>
+        <v>20.420522999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.410000</v>
+        <v>1221.4100000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.046000</v>
+        <v>-91.046000000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>73524.091468</v>
+        <v>73524.091467999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.423359</v>
+        <v>20.423359000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1226.320000</v>
+        <v>1226.32</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.768400</v>
+        <v>-86.7684</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>73534.611582</v>
+        <v>73534.611581999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.426281</v>
+        <v>20.426280999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1233.920000</v>
+        <v>1233.92</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.146400</v>
+        <v>-90.1464</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>73545.592016</v>
+        <v>73545.592015999995</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.429331</v>
+        <v>20.429331000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.074000</v>
+        <v>-102.074</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>73556.624529</v>
+        <v>73556.624528999993</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.432396</v>
+        <v>20.432396000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.433000</v>
+        <v>-121.43300000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>73567.788513</v>
+        <v>73567.788513000007</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.435497</v>
+        <v>20.435497000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1260.900000</v>
+        <v>1260.9000000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.886000</v>
+        <v>-138.886</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>73578.440068</v>
+        <v>73578.440067999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.438456</v>
+        <v>20.438455999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1301.630000</v>
+        <v>1301.6300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.711000</v>
+        <v>-220.71100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>73589.597111</v>
+        <v>73589.597110999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.441555</v>
+        <v>20.441555000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.220000</v>
+        <v>1372.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.430000</v>
+        <v>-356.43</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>73600.878615</v>
+        <v>73600.878614999994</v>
       </c>
       <c r="BO8" s="1">
         <v>20.444689</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.860000</v>
+        <v>1487.86</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.628000</v>
+        <v>-576.62800000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>73612.453235</v>
+        <v>73612.453234999994</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.447904</v>
+        <v>20.447904000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.800000</v>
+        <v>1620.8</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.851000</v>
+        <v>-823.851</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>73623.267993</v>
+        <v>73623.267993000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.450908</v>
+        <v>20.450907999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.610000</v>
+        <v>1774.61</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.260000</v>
+        <v>-1092.26</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>73635.182890</v>
+        <v>73635.182889999996</v>
       </c>
       <c r="CD8" s="1">
         <v>20.454217</v>
       </c>
       <c r="CE8" s="1">
-        <v>2193.990000</v>
+        <v>2193.9899999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1738.540000</v>
+        <v>-1738.54</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>73462.117487</v>
+        <v>73462.117486999996</v>
       </c>
       <c r="B9" s="1">
-        <v>20.406144</v>
+        <v>20.406144000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D9" s="1">
-        <v>-250.576000</v>
+        <v>-250.57599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>73472.533001</v>
+        <v>73472.533001000003</v>
       </c>
       <c r="G9" s="1">
-        <v>20.409037</v>
+        <v>20.409037000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.420000</v>
+        <v>1170.42</v>
       </c>
       <c r="I9" s="1">
-        <v>-211.273000</v>
+        <v>-211.273</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>73483.272711</v>
+        <v>73483.272710999998</v>
       </c>
       <c r="L9" s="1">
-        <v>20.412020</v>
+        <v>20.412019999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1197.410000</v>
+        <v>1197.4100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.700000</v>
+        <v>-148.69999999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>73493.519029</v>
+        <v>73493.519029000003</v>
       </c>
       <c r="Q9" s="1">
         <v>20.414866</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.537000</v>
+        <v>-127.53700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>73504.122006</v>
+        <v>73504.122006000005</v>
       </c>
       <c r="V9" s="1">
-        <v>20.417812</v>
+        <v>20.417812000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.492000</v>
+        <v>-107.492</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>73514.233484</v>
+        <v>73514.233483999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.420620</v>
+        <v>20.42062</v>
       </c>
       <c r="AB9" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.910000</v>
+        <v>-90.91</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>73524.437149</v>
+        <v>73524.437149000005</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.423455</v>
+        <v>20.423455000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1226.400000</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.758100</v>
+        <v>-86.758099999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>73535.285177</v>
+        <v>73535.285176999998</v>
       </c>
       <c r="AK9" s="1">
         <v>20.426468</v>
       </c>
       <c r="AL9" s="1">
-        <v>1233.910000</v>
+        <v>1233.9100000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.142400</v>
+        <v>-90.142399999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>73546.015599</v>
+        <v>73546.015599000006</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.429449</v>
+        <v>20.429449000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1242.100000</v>
+        <v>1242.0999999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.119000</v>
+        <v>-102.119</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>73557.070464</v>
+        <v>73557.070464000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.432520</v>
+        <v>20.43252</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.410000</v>
+        <v>-121.41</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>73568.174382</v>
+        <v>73568.174381999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.435604</v>
+        <v>20.435604000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.923000</v>
+        <v>-138.923</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>73578.799171</v>
+        <v>73578.799171000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.438555</v>
+        <v>20.438555000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1301.640000</v>
+        <v>1301.6400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.702000</v>
+        <v>-220.702</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>73589.974036</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.441659</v>
+        <v>20.441659000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.160000</v>
+        <v>1372.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.480000</v>
+        <v>-356.48</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>73601.312614</v>
+        <v>73601.312613999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.444809</v>
+        <v>20.444808999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.860000</v>
+        <v>1487.86</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.644000</v>
+        <v>-576.64400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>73612.847046</v>
+        <v>73612.847045999995</v>
       </c>
       <c r="BT9" s="1">
         <v>20.448013</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.740000</v>
+        <v>1620.74</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.930000</v>
+        <v>-823.93</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>73623.699016</v>
+        <v>73623.699015999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.451028</v>
+        <v>20.451028000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.710000</v>
+        <v>1774.71</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.170000</v>
+        <v>-1092.17</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>73635.701704</v>
+        <v>73635.701704000006</v>
       </c>
       <c r="CD9" s="1">
         <v>20.454362</v>
       </c>
       <c r="CE9" s="1">
-        <v>2193.420000</v>
+        <v>2193.42</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1736.590000</v>
+        <v>-1736.59</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>73462.456573</v>
+        <v>73462.456573000003</v>
       </c>
       <c r="B10" s="1">
-        <v>20.406238</v>
+        <v>20.406237999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.630000</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-250.576000</v>
+        <v>-250.57599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>73473.226704</v>
+        <v>73473.226704000001</v>
       </c>
       <c r="G10" s="1">
-        <v>20.409230</v>
+        <v>20.409230000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.170000</v>
+        <v>1170.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-211.032000</v>
+        <v>-211.03200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>73483.628337</v>
+        <v>73483.628337000002</v>
       </c>
       <c r="L10" s="1">
-        <v>20.412119</v>
+        <v>20.412119000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.280000</v>
+        <v>1197.28</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.696000</v>
+        <v>-148.696</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>73493.866261</v>
+        <v>73493.866261000003</v>
       </c>
       <c r="Q10" s="1">
         <v>20.414963</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.460000</v>
+        <v>1205.46</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.562000</v>
+        <v>-127.562</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>73504.467222</v>
+        <v>73504.467222000007</v>
       </c>
       <c r="V10" s="1">
-        <v>20.417908</v>
+        <v>20.417908000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.280000</v>
+        <v>1213.28</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.532000</v>
+        <v>-107.532</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>73514.896600</v>
+        <v>73514.896599999993</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.420805</v>
+        <v>20.420805000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1221.410000</v>
+        <v>1221.4100000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.083100</v>
+        <v>-91.083100000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>73525.105754</v>
+        <v>73525.105754000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.423640</v>
+        <v>20.423639999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1226.470000</v>
+        <v>1226.47</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.591500</v>
+        <v>-86.591499999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>73535.656652</v>
+        <v>73535.656652000005</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.426571</v>
+        <v>20.426570999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.151200</v>
+        <v>-90.151200000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>73546.373743</v>
+        <v>73546.373743000004</v>
       </c>
       <c r="AP10" s="1">
         <v>20.429548</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>73557.434991</v>
+        <v>73557.434991000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.432621</v>
+        <v>20.432621000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.411000</v>
+        <v>-121.411</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>73568.532977</v>
+        <v>73568.532976999995</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.435704</v>
+        <v>20.435704000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1260.900000</v>
+        <v>1260.9000000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.903000</v>
+        <v>-138.90299999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>73579.248547</v>
+        <v>73579.248546999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.438680</v>
+        <v>20.438680000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.703000</v>
+        <v>-220.703</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>73590.412501</v>
+        <v>73590.412500999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>20.441781</v>
+        <v>20.441780999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.090000</v>
+        <v>1372.09</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.440000</v>
+        <v>-356.44</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>73601.699462</v>
+        <v>73601.699462000004</v>
       </c>
       <c r="BO10" s="1">
         <v>20.444917</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.800000</v>
+        <v>1487.8</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.655000</v>
+        <v>-576.65499999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>73613.285540</v>
+        <v>73613.285539999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.448135</v>
+        <v>20.448135000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.740000</v>
+        <v>1620.74</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.016000</v>
+        <v>-824.01599999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>73624.121111</v>
@@ -2762,105 +3178,105 @@
         <v>20.451145</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.550000</v>
+        <v>1774.55</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1091.990000</v>
+        <v>-1091.99</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>73636.220519</v>
+        <v>73636.220518999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.454506</v>
+        <v>20.454505999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.560000</v>
+        <v>2191.56</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1737.330000</v>
+        <v>-1737.33</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>73463.144524</v>
+        <v>73463.144524000003</v>
       </c>
       <c r="B11" s="1">
-        <v>20.406429</v>
+        <v>20.406428999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.960000</v>
+        <v>1149.96</v>
       </c>
       <c r="D11" s="1">
-        <v>-250.397000</v>
+        <v>-250.39699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>73473.570432</v>
+        <v>73473.570431999993</v>
       </c>
       <c r="G11" s="1">
-        <v>20.409325</v>
+        <v>20.409324999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.880000</v>
+        <v>1169.8800000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-211.136000</v>
+        <v>-211.136</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>73483.972560</v>
+        <v>73483.972559999995</v>
       </c>
       <c r="L11" s="1">
         <v>20.412215</v>
       </c>
       <c r="M11" s="1">
-        <v>1197.560000</v>
+        <v>1197.56</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.625000</v>
+        <v>-148.625</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>73494.217427</v>
+        <v>73494.217426999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.415060</v>
+        <v>20.41506</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.563000</v>
+        <v>-127.563</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>73505.118004</v>
+        <v>73505.118004000004</v>
       </c>
       <c r="V11" s="1">
-        <v>20.418088</v>
+        <v>20.418088000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.270000</v>
+        <v>1213.27</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.541000</v>
+        <v>-107.541</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>73515.279016</v>
@@ -2869,390 +3285,390 @@
         <v>20.420911</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.003800</v>
+        <v>-91.003799999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>73525.469322</v>
+        <v>73525.469322000004</v>
       </c>
       <c r="AF11" s="1">
         <v>20.423741</v>
       </c>
       <c r="AG11" s="1">
-        <v>1226.470000</v>
+        <v>1226.47</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.660300</v>
+        <v>-86.660300000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>73536.004380</v>
+        <v>73536.004379999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.426668</v>
+        <v>20.426667999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.163900</v>
+        <v>-90.163899999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>73546.733806</v>
+        <v>73546.733806000004</v>
       </c>
       <c r="AP11" s="1">
         <v>20.429648</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1242.130000</v>
+        <v>1242.1300000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>73557.799055</v>
+        <v>73557.799054999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.432722</v>
+        <v>20.432721999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.409000</v>
+        <v>-121.40900000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>73568.982888</v>
+        <v>73568.982887999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.435829</v>
+        <v>20.435828999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1260.900000</v>
+        <v>1260.9000000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.899000</v>
+        <v>-138.899</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>73579.521381</v>
+        <v>73579.521380999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.438756</v>
+        <v>20.438756000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.712000</v>
+        <v>-220.71199999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>73590.722996</v>
+        <v>73590.722995999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.441867</v>
+        <v>20.441866999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.200000</v>
+        <v>1372.2</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.383000</v>
+        <v>-356.38299999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>73602.095765</v>
+        <v>73602.095765000005</v>
       </c>
       <c r="BO11" s="1">
         <v>20.445027</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.870000</v>
+        <v>1487.87</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.654000</v>
+        <v>-576.654</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>73613.711611</v>
+        <v>73613.711611000006</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.448253</v>
+        <v>20.448253000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.850000</v>
+        <v>1620.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.146000</v>
+        <v>-824.14599999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>73624.540760</v>
+        <v>73624.540760000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.451261</v>
+        <v>20.451260999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.460000</v>
+        <v>1774.46</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.120000</v>
+        <v>-1092.1199999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>73636.739335</v>
+        <v>73636.739335000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.454650</v>
+        <v>20.454650000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.400000</v>
+        <v>2192.4</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1739.230000</v>
+        <v>-1739.23</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>73463.487793</v>
+        <v>73463.487792999993</v>
       </c>
       <c r="B12" s="1">
-        <v>20.406524</v>
+        <v>20.406524000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D12" s="1">
-        <v>-250.730000</v>
+        <v>-250.73</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>73473.915151</v>
+        <v>73473.915150999994</v>
       </c>
       <c r="G12" s="1">
-        <v>20.409421</v>
+        <v>20.409420999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.140000</v>
+        <v>1170.1400000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-211.503000</v>
+        <v>-211.50299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>73484.637663</v>
+        <v>73484.637663000001</v>
       </c>
       <c r="L12" s="1">
-        <v>20.412399</v>
+        <v>20.412399000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1197.210000</v>
+        <v>1197.21</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.684000</v>
+        <v>-148.684</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>73494.883026</v>
+        <v>73494.883025999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.415245</v>
+        <v>20.415244999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.580000</v>
+        <v>-127.58</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>73505.498404</v>
+        <v>73505.498403999998</v>
       </c>
       <c r="V12" s="1">
         <v>20.418194</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.150000</v>
+        <v>1213.1500000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.392000</v>
+        <v>-107.392</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>73515.627207</v>
+        <v>73515.627206999998</v>
       </c>
       <c r="AA12" s="1">
         <v>20.421008</v>
       </c>
       <c r="AB12" s="1">
-        <v>1221.320000</v>
+        <v>1221.32</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.033500</v>
+        <v>-91.033500000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>73525.811370</v>
+        <v>73525.811369999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.423836</v>
+        <v>20.423836000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1226.490000</v>
+        <v>1226.49</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.747400</v>
+        <v>-86.747399999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>73536.356012</v>
+        <v>73536.356012000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.426766</v>
+        <v>20.426766000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.141600</v>
+        <v>-90.141599999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>73547.163341</v>
+        <v>73547.163341000007</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.429768</v>
+        <v>20.429767999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.101000</v>
+        <v>-102.101</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>73558.233055</v>
+        <v>73558.233055000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.432843</v>
+        <v>20.432842999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.280000</v>
+        <v>1252.28</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.464000</v>
+        <v>-121.464</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>73569.248736</v>
+        <v>73569.248735999994</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.435902</v>
+        <v>20.435901999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.922000</v>
+        <v>-138.922</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>73579.884946</v>
+        <v>73579.884946000006</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.438857</v>
+        <v>20.438856999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.695000</v>
+        <v>-220.69499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>73591.107395</v>
+        <v>73591.107394999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.441974</v>
+        <v>20.441973999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.140000</v>
+        <v>1372.14</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.558000</v>
+        <v>-356.55799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>73602.519876</v>
+        <v>73602.519876000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.445144</v>
+        <v>20.445143999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.900000</v>
+        <v>1487.9</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.640000</v>
+        <v>-576.64</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>73614.141636</v>
@@ -3261,255 +3677,255 @@
         <v>20.448373</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.790000</v>
+        <v>1620.79</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.238000</v>
+        <v>-824.23800000000006</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>73624.972246</v>
+        <v>73624.972246000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.451381</v>
+        <v>20.451381000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.500000</v>
+        <v>1774.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.230000</v>
+        <v>-1092.23</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>73637.256200</v>
+        <v>73637.256200000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.454793</v>
+        <v>20.454792999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2192.420000</v>
+        <v>2192.42</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1739.010000</v>
+        <v>-1739.01</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>73464.178682</v>
+        <v>73464.178681999998</v>
       </c>
       <c r="B13" s="1">
-        <v>20.406716</v>
+        <v>20.406715999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D13" s="1">
-        <v>-250.874000</v>
+        <v>-250.874</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>73474.579789</v>
+        <v>73474.579788999996</v>
       </c>
       <c r="G13" s="1">
-        <v>20.409605</v>
+        <v>20.409604999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.160000</v>
+        <v>1170.1600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-211.285000</v>
+        <v>-211.285</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>73485.008671</v>
+        <v>73485.008671000003</v>
       </c>
       <c r="L13" s="1">
         <v>20.412502</v>
       </c>
       <c r="M13" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.619000</v>
+        <v>-148.619</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>73495.261970</v>
+        <v>73495.261970000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.415351</v>
+        <v>20.415351000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.483000</v>
+        <v>-127.483</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>73505.840644</v>
+        <v>73505.840643999996</v>
       </c>
       <c r="V13" s="1">
-        <v>20.418289</v>
+        <v>20.418289000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.050000</v>
+        <v>1213.05</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.442000</v>
+        <v>-107.44199999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>73515.977382</v>
+        <v>73515.977381999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.421105</v>
+        <v>20.421105000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.203400</v>
+        <v>-91.203400000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>73526.155785</v>
+        <v>73526.155784999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.423932</v>
+        <v>20.423932000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1226.450000</v>
+        <v>1226.45</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.745700</v>
+        <v>-86.745699999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>73536.780091</v>
+        <v>73536.780090999993</v>
       </c>
       <c r="AK13" s="1">
         <v>20.426883</v>
       </c>
       <c r="AL13" s="1">
-        <v>1233.910000</v>
+        <v>1233.9100000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.146300</v>
+        <v>-90.146299999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>73547.456509</v>
+        <v>73547.456508999996</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.429849</v>
+        <v>20.429849000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>73558.531150</v>
+        <v>73558.531149999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.432925</v>
+        <v>20.432925000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>73569.609327</v>
+        <v>73569.609326999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.436003</v>
+        <v>20.436002999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1260.910000</v>
+        <v>1260.9100000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.883000</v>
+        <v>-138.88300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>73580.246531</v>
+        <v>73580.246530999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.438957</v>
+        <v>20.438956999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1301.630000</v>
+        <v>1301.6300000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.694000</v>
+        <v>-220.69399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>73591.496258</v>
+        <v>73591.496257999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.442082</v>
+        <v>20.442081999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.230000</v>
+        <v>1372.23</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.456000</v>
+        <v>-356.45600000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>73603.334275</v>
+        <v>73603.334275000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.445371</v>
+        <v>20.445371000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.870000</v>
+        <v>1487.87</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.651000</v>
+        <v>-576.65099999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>73614.551796</v>
@@ -3518,2478 +3934,2478 @@
         <v>20.448487</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.750000</v>
+        <v>1620.75</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.430000</v>
+        <v>-824.43</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>73625.411741</v>
+        <v>73625.411741000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.451503</v>
+        <v>20.451502999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.530000</v>
+        <v>1774.53</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.050000</v>
+        <v>-1092.05</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>73637.805270</v>
+        <v>73637.805269999997</v>
       </c>
       <c r="CD13" s="1">
         <v>20.454946</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.380000</v>
+        <v>2191.38</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1737.720000</v>
+        <v>-1737.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>73464.516458</v>
+        <v>73464.516457999998</v>
       </c>
       <c r="B14" s="1">
-        <v>20.406810</v>
+        <v>20.40681</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.870000</v>
+        <v>1149.8699999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-250.477000</v>
+        <v>-250.477</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>73474.953276</v>
       </c>
       <c r="G14" s="1">
-        <v>20.409709</v>
+        <v>20.409708999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.380000</v>
+        <v>1170.3800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-211.674000</v>
+        <v>-211.67400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>73485.354383</v>
+        <v>73485.354382999998</v>
       </c>
       <c r="L14" s="1">
-        <v>20.412598</v>
+        <v>20.412597999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.250000</v>
+        <v>1197.25</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.663000</v>
+        <v>-148.66300000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>73495.613137</v>
+        <v>73495.613136999993</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.415448</v>
+        <v>20.415448000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.469000</v>
+        <v>-127.46899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>73506.190323</v>
+        <v>73506.190323000003</v>
       </c>
       <c r="V14" s="1">
-        <v>20.418386</v>
+        <v>20.418386000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.170000</v>
+        <v>1213.17</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.434000</v>
+        <v>-107.434</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>73516.407910</v>
+        <v>73516.407909999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.421224</v>
+        <v>20.421223999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.039900</v>
+        <v>-91.039900000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>73526.586344</v>
+        <v>73526.586343999996</v>
       </c>
       <c r="AF14" s="1">
         <v>20.424052</v>
       </c>
       <c r="AG14" s="1">
-        <v>1226.480000</v>
+        <v>1226.48</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.671100</v>
+        <v>-86.671099999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>73537.061322</v>
+        <v>73537.061321999994</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.426961</v>
+        <v>20.426960999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1233.910000</v>
+        <v>1233.9100000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.137100</v>
+        <v>-90.137100000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>73547.817565</v>
+        <v>73547.817565000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.429949</v>
+        <v>20.429949000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>73558.894717</v>
+        <v>73558.894717000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.433026</v>
+        <v>20.433026000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.431000</v>
+        <v>-121.431</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>73569.971375</v>
+        <v>73569.971374999994</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.436103</v>
+        <v>20.436102999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.903000</v>
+        <v>-138.90299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>73580.972153</v>
+        <v>73580.972152999995</v>
       </c>
       <c r="BE14" s="1">
         <v>20.439159</v>
       </c>
       <c r="BF14" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.705000</v>
+        <v>-220.70500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>73592.246707</v>
+        <v>73592.246706999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.442291</v>
+        <v>20.442291000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.210000</v>
+        <v>1372.21</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.492000</v>
+        <v>-356.49200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>73603.751906</v>
+        <v>73603.751906000005</v>
       </c>
       <c r="BO14" s="1">
         <v>20.445487</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.920000</v>
+        <v>1487.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.638000</v>
+        <v>-576.63800000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>73614.983811</v>
+        <v>73614.983810999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.448607</v>
+        <v>20.448606999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.810000</v>
+        <v>1620.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-824.368000</v>
+        <v>-824.36800000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>73625.846693</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.451624</v>
+        <v>20.451623999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.620000</v>
+        <v>1774.62</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.000000</v>
+        <v>-1092</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>73638.654916</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.455182</v>
+        <v>20.455182000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.840000</v>
+        <v>2192.84</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1739.140000</v>
+        <v>-1739.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>73464.856716</v>
+        <v>73464.856715999995</v>
       </c>
       <c r="B15" s="1">
-        <v>20.406905</v>
+        <v>20.406904999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.860000</v>
+        <v>1149.8599999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-250.385000</v>
+        <v>-250.38499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>73475.299273</v>
+        <v>73475.299272999997</v>
       </c>
       <c r="G15" s="1">
-        <v>20.409805</v>
+        <v>20.409804999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.120000</v>
+        <v>1170.1199999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-211.599000</v>
+        <v>-211.59899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>73485.701125</v>
+        <v>73485.701125000007</v>
       </c>
       <c r="L15" s="1">
-        <v>20.412695</v>
+        <v>20.412694999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1197.240000</v>
+        <v>1197.24</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.479000</v>
+        <v>-148.47900000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>73496.050113</v>
+        <v>73496.050113000005</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.415569</v>
+        <v>20.415569000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.420000</v>
+        <v>1205.42</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.546000</v>
+        <v>-127.54600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>73506.614899</v>
+        <v>73506.614898999993</v>
       </c>
       <c r="V15" s="1">
-        <v>20.418504</v>
+        <v>20.418503999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1213.120000</v>
+        <v>1213.1199999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.450000</v>
+        <v>-107.45</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>73516.688645</v>
+        <v>73516.688645000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.421302</v>
+        <v>20.421302000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.089200</v>
+        <v>-91.089200000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>73526.851672</v>
+        <v>73526.851672000004</v>
       </c>
       <c r="AF15" s="1">
         <v>20.424125</v>
       </c>
       <c r="AG15" s="1">
-        <v>1226.270000</v>
+        <v>1226.27</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.866700</v>
+        <v>-86.866699999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>73537.409514</v>
+        <v>73537.409513999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.427058</v>
+        <v>20.427057999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1233.890000</v>
+        <v>1233.8900000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.147200</v>
+        <v>-90.147199999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>73548.179148</v>
+        <v>73548.179147999996</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.430050</v>
+        <v>20.430050000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1242.100000</v>
+        <v>1242.0999999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>73559.258286</v>
+        <v>73559.258285999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.433127</v>
+        <v>20.433126999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.430000</v>
+        <v>-121.43</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>73570.695038</v>
+        <v>73570.695038000005</v>
       </c>
       <c r="AZ15" s="1">
         <v>20.436304</v>
       </c>
       <c r="BA15" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.901000</v>
+        <v>-138.90100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>73581.350592</v>
+        <v>73581.350592000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.439264</v>
+        <v>20.439264000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1301.620000</v>
+        <v>1301.6199999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.688000</v>
+        <v>-220.68799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>73592.649457</v>
+        <v>73592.649457000007</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.442403</v>
+        <v>20.442402999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.170000</v>
+        <v>1372.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.448000</v>
+        <v>-356.44799999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>73604.152675</v>
+        <v>73604.152675000005</v>
       </c>
       <c r="BO15" s="1">
         <v>20.445598</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.860000</v>
+        <v>1487.86</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.666000</v>
+        <v>-576.66600000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>73615.705491</v>
+        <v>73615.705491000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.448807</v>
+        <v>20.448806999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.970000</v>
+        <v>1620.97</v>
       </c>
       <c r="BV15" s="1">
-        <v>-824.410000</v>
+        <v>-824.41</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>73626.603588</v>
+        <v>73626.603587999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.451834</v>
+        <v>20.451834000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.660000</v>
+        <v>1774.66</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.210000</v>
+        <v>-1092.21</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>73638.893498</v>
+        <v>73638.893498000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.455248</v>
+        <v>20.455248000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.050000</v>
+        <v>2194.0500000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1737.650000</v>
+        <v>-1737.65</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>73465.194489</v>
+        <v>73465.194489000001</v>
       </c>
       <c r="B16" s="1">
-        <v>20.406998</v>
+        <v>20.406998000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.610000</v>
+        <v>1149.6099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-250.557000</v>
+        <v>-250.55699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>73475.641725</v>
+        <v>73475.641724999994</v>
       </c>
       <c r="G16" s="1">
-        <v>20.409900</v>
+        <v>20.4099</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.540000</v>
+        <v>1169.54</v>
       </c>
       <c r="I16" s="1">
-        <v>-211.388000</v>
+        <v>-211.38800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>73486.132643</v>
+        <v>73486.132643000004</v>
       </c>
       <c r="L16" s="1">
-        <v>20.412815</v>
+        <v>20.412814999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.400000</v>
+        <v>1197.4000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.649000</v>
+        <v>-148.649</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>73496.677057</v>
+        <v>73496.677056999994</v>
       </c>
       <c r="Q16" s="1">
         <v>20.415744</v>
       </c>
       <c r="R16" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.586000</v>
+        <v>-127.586</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>73506.892163</v>
+        <v>73506.892162999997</v>
       </c>
       <c r="V16" s="1">
         <v>20.418581</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.180000</v>
+        <v>1213.18</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.542000</v>
+        <v>-107.542</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>73517.037333</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.421399</v>
+        <v>20.421399000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1221.450000</v>
+        <v>1221.45</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.130200</v>
+        <v>-91.130200000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>73527.194903</v>
+        <v>73527.194902999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.424221</v>
+        <v>20.424220999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1226.440000</v>
+        <v>1226.44</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.701900</v>
+        <v>-86.701899999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>73537.757737</v>
+        <v>73537.757737000007</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.427155</v>
+        <v>20.427154999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1233.940000</v>
+        <v>1233.94</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.143600</v>
+        <v>-90.143600000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>73548.894876</v>
+        <v>73548.894876000006</v>
       </c>
       <c r="AP16" s="1">
         <v>20.430249</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>73559.985916</v>
+        <v>73559.985916000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.433329</v>
+        <v>20.433329000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>73571.069023</v>
+        <v>73571.069023000004</v>
       </c>
       <c r="AZ16" s="1">
         <v>20.436408</v>
       </c>
       <c r="BA16" s="1">
-        <v>1260.910000</v>
+        <v>1260.9100000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.916000</v>
+        <v>-138.916</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>73581.711683</v>
+        <v>73581.711683000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.439364</v>
+        <v>20.439364000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1301.670000</v>
+        <v>1301.67</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.719000</v>
+        <v>-220.71899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>73593.024434</v>
+        <v>73593.024434000006</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.442507</v>
+        <v>20.442506999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.200000</v>
+        <v>1372.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.491000</v>
+        <v>-356.49099999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>73604.878854</v>
+        <v>73604.878853999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.445800</v>
+        <v>20.445799999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.920000</v>
+        <v>1487.92</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.630000</v>
+        <v>-576.63</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>73615.825027</v>
+        <v>73615.825026999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.448840</v>
+        <v>20.448840000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.900000</v>
+        <v>1620.9</v>
       </c>
       <c r="BV16" s="1">
-        <v>-824.549000</v>
+        <v>-824.54899999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>73627.138772</v>
+        <v>73627.138772000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.451983</v>
+        <v>20.451982999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.690000</v>
+        <v>1774.69</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.180000</v>
+        <v>-1092.18</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>73639.425667</v>
+        <v>73639.425667000003</v>
       </c>
       <c r="CD16" s="1">
         <v>20.455396</v>
       </c>
       <c r="CE16" s="1">
-        <v>2191.420000</v>
+        <v>2191.42</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1737.300000</v>
+        <v>-1737.3</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>73465.625514</v>
+        <v>73465.625513999999</v>
       </c>
       <c r="B17" s="1">
-        <v>20.407118</v>
+        <v>20.407118000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.730000</v>
+        <v>1149.73</v>
       </c>
       <c r="D17" s="1">
-        <v>-250.709000</v>
+        <v>-250.709</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>73476.077707</v>
+        <v>73476.077707000004</v>
       </c>
       <c r="G17" s="1">
-        <v>20.410022</v>
+        <v>20.410022000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.970000</v>
+        <v>1169.97</v>
       </c>
       <c r="I17" s="1">
-        <v>-211.538000</v>
+        <v>-211.53800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>73486.405438</v>
+        <v>73486.405438000002</v>
       </c>
       <c r="L17" s="1">
-        <v>20.412890</v>
+        <v>20.412890000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1197.430000</v>
+        <v>1197.43</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.691000</v>
+        <v>-148.691</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>73497.023295</v>
+        <v>73497.023295000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.415840</v>
+        <v>20.415839999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.508000</v>
+        <v>-127.508</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>73507.236882</v>
+        <v>73507.236881999997</v>
       </c>
       <c r="V17" s="1">
-        <v>20.418677</v>
+        <v>20.418676999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.210000</v>
+        <v>1213.21</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.437000</v>
+        <v>-107.437</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>73517.387047</v>
+        <v>73517.387046999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.421496</v>
+        <v>20.421496000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.034800</v>
+        <v>-91.034800000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>73527.538147</v>
+        <v>73527.538146999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.424316</v>
+        <v>20.424316000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1226.410000</v>
+        <v>1226.4100000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.843500</v>
+        <v>-86.843500000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>73538.454089</v>
+        <v>73538.454089000006</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.427348</v>
+        <v>20.427347999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1233.920000</v>
+        <v>1233.92</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.184300</v>
+        <v>-90.184299999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>73549.284730</v>
+        <v>73549.284729999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.430357</v>
+        <v>20.430357000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>73560.380275</v>
+        <v>73560.380275000003</v>
       </c>
       <c r="AU17" s="1">
         <v>20.433439</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.450000</v>
+        <v>-121.45</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>73571.452925</v>
+        <v>73571.452925000005</v>
       </c>
       <c r="AZ17" s="1">
         <v>20.436515</v>
       </c>
       <c r="BA17" s="1">
-        <v>1260.940000</v>
+        <v>1260.94</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.909000</v>
+        <v>-138.90899999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>73582.389712</v>
+        <v>73582.389712000004</v>
       </c>
       <c r="BE17" s="1">
         <v>20.439553</v>
       </c>
       <c r="BF17" s="1">
-        <v>1301.640000</v>
+        <v>1301.6400000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.706000</v>
+        <v>-220.70599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>73593.720320</v>
+        <v>73593.720319999993</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.442700</v>
+        <v>20.442699999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.200000</v>
+        <v>1372.2</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.421000</v>
+        <v>-356.42099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>73605.389696</v>
+        <v>73605.389695999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.445942</v>
+        <v>20.445941999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.880000</v>
+        <v>1487.88</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.726000</v>
+        <v>-576.726</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>73616.264019</v>
+        <v>73616.264018999995</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.448962</v>
+        <v>20.448962000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.050000</v>
+        <v>1621.05</v>
       </c>
       <c r="BV17" s="1">
-        <v>-824.618000</v>
+        <v>-824.61800000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>73627.580243</v>
+        <v>73627.580243000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.452106</v>
+        <v>20.452106000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.460000</v>
+        <v>1774.46</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.170000</v>
+        <v>-1092.17</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>73639.961843</v>
+        <v>73639.961842999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.455545</v>
+        <v>20.455545000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2193.940000</v>
+        <v>2193.94</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1738.920000</v>
+        <v>-1738.92</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>73465.895337</v>
+        <v>73465.895336999994</v>
       </c>
       <c r="B18" s="1">
-        <v>20.407193</v>
+        <v>20.407192999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D18" s="1">
-        <v>-250.453000</v>
+        <v>-250.453</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>73476.331195</v>
+        <v>73476.331195000006</v>
       </c>
       <c r="G18" s="1">
-        <v>20.410092</v>
+        <v>20.410091999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.690000</v>
+        <v>1170.69</v>
       </c>
       <c r="I18" s="1">
-        <v>-211.582000</v>
+        <v>-211.58199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>73486.749134</v>
+        <v>73486.749133999998</v>
       </c>
       <c r="L18" s="1">
         <v>20.412986</v>
       </c>
       <c r="M18" s="1">
-        <v>1197.280000</v>
+        <v>1197.28</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.748000</v>
+        <v>-148.74799999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>73497.371952</v>
+        <v>73497.371952000001</v>
       </c>
       <c r="Q18" s="1">
         <v>20.415937</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.518000</v>
+        <v>-127.518</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>73507.580610</v>
+        <v>73507.580610000005</v>
       </c>
       <c r="V18" s="1">
-        <v>20.418772</v>
+        <v>20.418772000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.160000</v>
+        <v>1213.1600000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.342000</v>
+        <v>-107.342</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>73518.084884</v>
+        <v>73518.084883999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.421690</v>
+        <v>20.421690000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.022800</v>
+        <v>-91.022800000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>73528.226582</v>
+        <v>73528.226582000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.424507</v>
+        <v>20.424506999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1226.270000</v>
+        <v>1226.27</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.654200</v>
+        <v>-86.654200000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>73538.804264</v>
+        <v>73538.804264000006</v>
       </c>
       <c r="AK18" s="1">
         <v>20.427446</v>
       </c>
       <c r="AL18" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.126200</v>
+        <v>-90.126199999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>73549.663674</v>
+        <v>73549.663673999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.430462</v>
+        <v>20.430461999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>73560.741592</v>
+        <v>73560.741592000006</v>
       </c>
       <c r="AU18" s="1">
         <v>20.433539</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.270000</v>
+        <v>1252.27</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.406000</v>
+        <v>-121.40600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>73572.125500</v>
+        <v>73572.125499999995</v>
       </c>
       <c r="AZ18" s="1">
         <v>20.436702</v>
       </c>
       <c r="BA18" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>73582.827678</v>
+        <v>73582.827678000001</v>
       </c>
       <c r="BE18" s="1">
         <v>20.439674</v>
       </c>
       <c r="BF18" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.710000</v>
+        <v>-220.71</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>73594.181599</v>
+        <v>73594.181599000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.442828</v>
+        <v>20.442827999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.230000</v>
+        <v>1372.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.445000</v>
+        <v>-356.44499999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>73605.804849</v>
+        <v>73605.804848999993</v>
       </c>
       <c r="BO18" s="1">
         <v>20.446057</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.880000</v>
+        <v>1487.88</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.657000</v>
+        <v>-576.65700000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>73616.691041</v>
+        <v>73616.691040999998</v>
       </c>
       <c r="BT18" s="1">
         <v>20.449081</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.060000</v>
+        <v>1621.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-824.573000</v>
+        <v>-824.57299999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>73628.020163</v>
+        <v>73628.020162999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.452228</v>
+        <v>20.452228000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.590000</v>
+        <v>1774.59</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.160000</v>
+        <v>-1092.1600000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>73640.504961</v>
+        <v>73640.504960999999</v>
       </c>
       <c r="CD18" s="1">
         <v>20.455696</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.260000</v>
+        <v>2192.2600000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1736.720000</v>
+        <v>-1736.72</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>73466.238569</v>
+        <v>73466.238568999994</v>
       </c>
       <c r="B19" s="1">
-        <v>20.407288</v>
+        <v>20.407288000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.650000</v>
+        <v>1149.6500000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-250.530000</v>
+        <v>-250.53</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>73476.674394</v>
+        <v>73476.674394000001</v>
       </c>
       <c r="G19" s="1">
-        <v>20.410187</v>
+        <v>20.410187000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.300000</v>
+        <v>1170.3</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.218000</v>
+        <v>-212.21799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>73487.094876</v>
+        <v>73487.094876000003</v>
       </c>
       <c r="L19" s="1">
-        <v>20.413082</v>
+        <v>20.413081999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.330000</v>
+        <v>1197.33</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.456000</v>
+        <v>-148.45599999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>73498.071806</v>
+        <v>73498.071806000007</v>
       </c>
       <c r="Q19" s="1">
         <v>20.416131</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.470000</v>
+        <v>1205.47</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.521000</v>
+        <v>-127.521</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>73508.268560</v>
+        <v>73508.268559999997</v>
       </c>
       <c r="V19" s="1">
-        <v>20.418963</v>
+        <v>20.418963000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.140000</v>
+        <v>1213.1400000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.594000</v>
+        <v>-107.59399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>73518.432083</v>
+        <v>73518.432083000007</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.421787</v>
+        <v>20.421786999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.001000</v>
+        <v>-91.001000000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>73528.648708</v>
+        <v>73528.648707999993</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.424625</v>
+        <v>20.424624999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1226.450000</v>
+        <v>1226.45</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.771100</v>
+        <v>-86.771100000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>73539.150972</v>
+        <v>73539.150972000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.427542</v>
+        <v>20.427541999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1233.920000</v>
+        <v>1233.92</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.152000</v>
+        <v>-90.152000000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>73550.336249</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.430649</v>
+        <v>20.430648999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>73561.520538</v>
+        <v>73561.520537999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.433756</v>
+        <v>20.433755999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.424000</v>
+        <v>-121.42400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>73572.532219</v>
+        <v>73572.532219000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.436815</v>
+        <v>20.436814999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1260.940000</v>
+        <v>1260.94</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>73583.189637</v>
+        <v>73583.189637000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.439775</v>
+        <v>20.439775000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.714000</v>
+        <v>-220.714</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>73594.571952</v>
+        <v>73594.571951999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.442937</v>
+        <v>20.442937000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.180000</v>
+        <v>1372.18</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.518000</v>
+        <v>-356.51799999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>73606.203147</v>
+        <v>73606.203146999993</v>
       </c>
       <c r="BO19" s="1">
         <v>20.446168</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.930000</v>
+        <v>1487.93</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.700000</v>
+        <v>-576.70000000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>73617.125536</v>
+        <v>73617.125536000007</v>
       </c>
       <c r="BT19" s="1">
         <v>20.449202</v>
       </c>
       <c r="BU19" s="1">
-        <v>1621.170000</v>
+        <v>1621.17</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.638000</v>
+        <v>-824.63800000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>73628.435314</v>
+        <v>73628.435314000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.452343</v>
+        <v>20.452342999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.490000</v>
+        <v>1774.49</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.050000</v>
+        <v>-1092.05</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>73641.040652</v>
+        <v>73641.040651999996</v>
       </c>
       <c r="CD19" s="1">
         <v>20.455845</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.610000</v>
+        <v>2192.61</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1739.140000</v>
+        <v>-1739.14</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>73466.579320</v>
+        <v>73466.579320000004</v>
       </c>
       <c r="B20" s="1">
-        <v>20.407383</v>
+        <v>20.407382999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.820000</v>
+        <v>1149.82</v>
       </c>
       <c r="D20" s="1">
-        <v>-250.620000</v>
+        <v>-250.62</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>73477.021626</v>
+        <v>73477.021626000002</v>
       </c>
       <c r="G20" s="1">
-        <v>20.410284</v>
+        <v>20.410284000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.260000</v>
+        <v>1170.26</v>
       </c>
       <c r="I20" s="1">
-        <v>-211.216000</v>
+        <v>-211.21600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>73487.788781</v>
+        <v>73487.788780999996</v>
       </c>
       <c r="L20" s="1">
-        <v>20.413275</v>
+        <v>20.413274999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1197.380000</v>
+        <v>1197.3800000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.672000</v>
+        <v>-148.672</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>73498.419502</v>
+        <v>73498.419502000004</v>
       </c>
       <c r="Q20" s="1">
         <v>20.416228</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.595000</v>
+        <v>-127.595</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>73508.613776</v>
+        <v>73508.613775999998</v>
       </c>
       <c r="V20" s="1">
-        <v>20.419059</v>
+        <v>20.419059000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.070000</v>
+        <v>1213.07</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.550000</v>
+        <v>-107.55</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>73518.781268</v>
+        <v>73518.781268000006</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.421884</v>
+        <v>20.421883999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1221.310000</v>
+        <v>1221.31</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.095200</v>
+        <v>-91.095200000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>73529.251317</v>
+        <v>73529.251317000002</v>
       </c>
       <c r="AF20" s="1">
         <v>20.424792</v>
       </c>
       <c r="AG20" s="1">
-        <v>1226.380000</v>
+        <v>1226.3800000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.757500</v>
+        <v>-86.757499999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>73539.814615</v>
+        <v>73539.814614999996</v>
       </c>
       <c r="AK20" s="1">
         <v>20.427726</v>
       </c>
       <c r="AL20" s="1">
-        <v>1233.920000</v>
+        <v>1233.92</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.128900</v>
+        <v>-90.128900000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>73550.743466</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.430762</v>
+        <v>20.430762000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1242.100000</v>
+        <v>1242.0999999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.097000</v>
+        <v>-102.09699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>73561.864265</v>
+        <v>73561.864264999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.433851</v>
+        <v>20.433851000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.432000</v>
+        <v>-121.432</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>73572.911202</v>
+        <v>73572.911202000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.436920</v>
+        <v>20.436920000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1260.910000</v>
+        <v>1260.9100000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.901000</v>
+        <v>-138.90100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>73583.549357</v>
+        <v>73583.549356999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.439875</v>
+        <v>20.439875000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.735000</v>
+        <v>-220.73500000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>73595.005949</v>
+        <v>73595.005948999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>20.443057</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.120000</v>
+        <v>1372.12</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.437000</v>
+        <v>-356.43700000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>73606.628207</v>
+        <v>73606.628207000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.446286</v>
+        <v>20.446286000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.850000</v>
+        <v>1487.85</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.622000</v>
+        <v>-576.62199999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>73617.530768</v>
+        <v>73617.530767999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.449314</v>
+        <v>20.449314000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1621.150000</v>
+        <v>1621.15</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.646000</v>
+        <v>-824.64599999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>73628.879729</v>
+        <v>73628.879728999993</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.452467</v>
+        <v>20.452466999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.730000</v>
+        <v>1774.73</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.140000</v>
+        <v>-1092.1400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>73641.584257</v>
+        <v>73641.584256999995</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.455996</v>
+        <v>20.455995999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2193.660000</v>
+        <v>2193.66</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1737.240000</v>
+        <v>-1737.24</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>73467.262343</v>
+        <v>73467.262342999995</v>
       </c>
       <c r="B21" s="1">
-        <v>20.407573</v>
+        <v>20.407572999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D21" s="1">
-        <v>-250.429000</v>
+        <v>-250.429</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>73477.715993</v>
+        <v>73477.715993000005</v>
       </c>
       <c r="G21" s="1">
         <v>20.410477</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.950000</v>
+        <v>1169.95</v>
       </c>
       <c r="I21" s="1">
-        <v>-210.922000</v>
+        <v>-210.922</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>73488.131483</v>
+        <v>73488.131483000005</v>
       </c>
       <c r="L21" s="1">
-        <v>20.413370</v>
+        <v>20.41337</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.250000</v>
+        <v>1197.25</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.393000</v>
+        <v>-148.393</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>73498.771197</v>
+        <v>73498.771196999995</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.416325</v>
+        <v>20.416325000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.606000</v>
+        <v>-127.60599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>73508.954031</v>
+        <v>73508.954031000001</v>
       </c>
       <c r="V21" s="1">
-        <v>20.419154</v>
+        <v>20.419153999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.020000</v>
+        <v>1213.02</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.441000</v>
+        <v>-107.441</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>73519.443954</v>
+        <v>73519.443954000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.422068</v>
+        <v>20.422067999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1221.300000</v>
+        <v>1221.3</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.006100</v>
+        <v>-91.006100000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>73529.614388</v>
+        <v>73529.614388000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.424893</v>
+        <v>20.424893000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1226.350000</v>
+        <v>1226.3499999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.742900</v>
+        <v>-86.742900000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>73540.199050</v>
+        <v>73540.199049999996</v>
       </c>
       <c r="AK21" s="1">
         <v>20.427833</v>
       </c>
       <c r="AL21" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.122000</v>
+        <v>-90.122</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>73551.132824</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.430870</v>
+        <v>20.430869999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1242.100000</v>
+        <v>1242.0999999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>73562.225849</v>
+        <v>73562.225848999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.433952</v>
+        <v>20.433952000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.416000</v>
+        <v>-121.416</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>73573.288619</v>
+        <v>73573.288618999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.437025</v>
+        <v>20.437024999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1260.910000</v>
+        <v>1260.9100000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.901000</v>
+        <v>-138.90100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>73583.976445</v>
+        <v>73583.976444999993</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.439993</v>
+        <v>20.439993000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>73595.319421</v>
+        <v>73595.319420999993</v>
       </c>
       <c r="BJ21" s="1">
         <v>20.443144</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.220000</v>
+        <v>1372.22</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.493000</v>
+        <v>-356.49299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>73607.021038</v>
+        <v>73607.021038000006</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.446395</v>
+        <v>20.446394999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.900000</v>
+        <v>1487.9</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.666000</v>
+        <v>-576.66600000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>73617.961829</v>
+        <v>73617.961829000007</v>
       </c>
       <c r="BT21" s="1">
         <v>20.449434</v>
       </c>
       <c r="BU21" s="1">
-        <v>1621.320000</v>
+        <v>1621.32</v>
       </c>
       <c r="BV21" s="1">
-        <v>-824.656000</v>
+        <v>-824.65599999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>73629.311744</v>
+        <v>73629.311744000006</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.452587</v>
+        <v>20.452587000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.610000</v>
+        <v>1774.61</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.000000</v>
+        <v>-1092</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>73642.125393</v>
+        <v>73642.125392999995</v>
       </c>
       <c r="CD21" s="1">
         <v>20.456146</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.530000</v>
+        <v>2191.5300000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1737.830000</v>
+        <v>-1737.83</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>73467.602567</v>
+        <v>73467.602566999994</v>
       </c>
       <c r="B22" s="1">
         <v>20.407667</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.680000</v>
+        <v>1149.68</v>
       </c>
       <c r="D22" s="1">
-        <v>-250.485000</v>
+        <v>-250.48500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>73478.061223</v>
+        <v>73478.061222999997</v>
       </c>
       <c r="G22" s="1">
-        <v>20.410573</v>
+        <v>20.410572999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1170.100000</v>
+        <v>1170.0999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-211.017000</v>
+        <v>-211.017</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>73488.481754</v>
+        <v>73488.481753999993</v>
       </c>
       <c r="L22" s="1">
-        <v>20.413467</v>
+        <v>20.413467000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.460000</v>
+        <v>1197.46</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.521000</v>
+        <v>-148.52099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>73499.435310</v>
+        <v>73499.435310000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.416510</v>
+        <v>20.416509999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.290000</v>
+        <v>1205.29</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.505000</v>
+        <v>-127.505</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>73509.618207</v>
+        <v>73509.618207000007</v>
       </c>
       <c r="V22" s="1">
         <v>20.419338</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.533000</v>
+        <v>-107.533</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>73519.828817</v>
+        <v>73519.828817000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.422175</v>
+        <v>20.422174999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.083300</v>
+        <v>-91.083299999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>73529.960100</v>
+        <v>73529.960099999997</v>
       </c>
       <c r="AF22" s="1">
         <v>20.424989</v>
       </c>
       <c r="AG22" s="1">
-        <v>1226.360000</v>
+        <v>1226.3599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.564600</v>
+        <v>-86.564599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>73540.546214</v>
+        <v>73540.546214000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.427930</v>
+        <v>20.42793</v>
       </c>
       <c r="AL22" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.137000</v>
+        <v>-90.137</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>73551.496392</v>
+        <v>73551.496392000001</v>
       </c>
       <c r="AP22" s="1">
         <v>20.430971</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1242.080000</v>
+        <v>1242.08</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.109000</v>
+        <v>-102.10899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>73562.664313</v>
+        <v>73562.664313000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.434073</v>
+        <v>20.434073000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.409000</v>
+        <v>-121.40900000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>73573.722618</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.437145</v>
+        <v>20.437145000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1260.900000</v>
+        <v>1260.9000000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.881000</v>
+        <v>-138.881</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>73584.272761</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.440076</v>
+        <v>20.440076000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1301.640000</v>
+        <v>1301.6400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.726000</v>
+        <v>-220.726</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>73595.695389</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.443249</v>
+        <v>20.443249000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.140000</v>
+        <v>1372.14</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.448000</v>
+        <v>-356.44799999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>73607.443141</v>
+        <v>73607.443140999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.446512</v>
+        <v>20.446511999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.930000</v>
+        <v>1487.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.643000</v>
+        <v>-576.64300000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>73618.375455</v>
+        <v>73618.375455000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.449549</v>
+        <v>20.449549000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1621.330000</v>
+        <v>1621.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-824.695000</v>
+        <v>-824.69500000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>73629.750240</v>
+        <v>73629.750239999994</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.452708</v>
+        <v>20.452708000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.540000</v>
+        <v>1774.54</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.060000</v>
+        <v>-1092.06</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>73642.663056</v>
+        <v>73642.663056000005</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.456295</v>
+        <v>20.456295000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2193.880000</v>
+        <v>2193.88</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1738.810000</v>
+        <v>-1738.81</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>73467.943814</v>
+        <v>73467.943813999998</v>
       </c>
       <c r="B23" s="1">
-        <v>20.407762</v>
+        <v>20.407762000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.040000</v>
+        <v>1150.04</v>
       </c>
       <c r="D23" s="1">
-        <v>-250.553000</v>
+        <v>-250.553</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>73478.406920</v>
+        <v>73478.406919999994</v>
       </c>
       <c r="G23" s="1">
-        <v>20.410669</v>
+        <v>20.410668999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.090000</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-210.590000</v>
+        <v>-210.59</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>73489.141370</v>
+        <v>73489.141369999998</v>
       </c>
       <c r="L23" s="1">
-        <v>20.413650</v>
+        <v>20.413650000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1197.380000</v>
+        <v>1197.3800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.627000</v>
+        <v>-148.62700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>73499.816237</v>
+        <v>73499.816237000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.416616</v>
+        <v>20.416616000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.520000</v>
+        <v>-127.52</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>73509.983232</v>
+        <v>73509.983231999999</v>
       </c>
       <c r="V23" s="1">
-        <v>20.419440</v>
+        <v>20.419440000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.180000</v>
+        <v>1213.18</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.619000</v>
+        <v>-107.619</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>73520.174065</v>
+        <v>73520.174064999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.422271</v>
+        <v>20.422270999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.999000</v>
+        <v>-90.998999999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>73530.309817</v>
+        <v>73530.309817000001</v>
       </c>
       <c r="AF23" s="1">
         <v>20.425086</v>
       </c>
       <c r="AG23" s="1">
-        <v>1226.690000</v>
+        <v>1226.69</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.818700</v>
+        <v>-86.818700000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>73540.898411</v>
+        <v>73540.898411000002</v>
       </c>
       <c r="AK23" s="1">
         <v>20.428027</v>
       </c>
       <c r="AL23" s="1">
-        <v>1233.920000</v>
+        <v>1233.92</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.134400</v>
+        <v>-90.134399999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>73551.930924</v>
@@ -5998,210 +6414,210 @@
         <v>20.431092</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.095000</v>
+        <v>-102.095</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>73562.957945</v>
+        <v>73562.957945000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.434155</v>
+        <v>20.434155000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>73574.004842</v>
+        <v>73574.004841999995</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.437224</v>
+        <v>20.437224000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.904000</v>
+        <v>-138.904</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>73584.632155</v>
+        <v>73584.632154999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.440176</v>
+        <v>20.440176000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.705000</v>
+        <v>-220.70500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>73596.070860</v>
+        <v>73596.070860000007</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.443353</v>
+        <v>20.443352999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.140000</v>
+        <v>1372.14</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.446000</v>
+        <v>-356.44600000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>73607.838459</v>
+        <v>73607.838459000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.446622</v>
+        <v>20.446622000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.900000</v>
+        <v>1487.9</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.653000</v>
+        <v>-576.65300000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>73618.804496</v>
+        <v>73618.804495999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.449668</v>
+        <v>20.449667999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-824.687000</v>
+        <v>-824.68700000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>73630.155936</v>
+        <v>73630.155935999996</v>
       </c>
       <c r="BY23" s="1">
         <v>20.452821</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.480000</v>
+        <v>1774.48</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.100000</v>
+        <v>-1092.0999999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>73643.205678</v>
+        <v>73643.205677999998</v>
       </c>
       <c r="CD23" s="1">
         <v>20.456446</v>
       </c>
       <c r="CE23" s="1">
-        <v>2192.050000</v>
+        <v>2192.0500000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1736.500000</v>
+        <v>-1736.5</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>73468.600535</v>
+        <v>73468.600535000005</v>
       </c>
       <c r="B24" s="1">
-        <v>20.407945</v>
+        <v>20.407945000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.850000</v>
+        <v>1149.8499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-250.586000</v>
+        <v>-250.58600000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>73479.090904</v>
+        <v>73479.090903999997</v>
       </c>
       <c r="G24" s="1">
-        <v>20.410859</v>
+        <v>20.410858999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.750000</v>
+        <v>1170.75</v>
       </c>
       <c r="I24" s="1">
-        <v>-211.550000</v>
+        <v>-211.55</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>73489.518298</v>
+        <v>73489.518297999995</v>
       </c>
       <c r="L24" s="1">
-        <v>20.413755</v>
+        <v>20.413754999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1197.180000</v>
+        <v>1197.18</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.648000</v>
+        <v>-148.648</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>73500.162444</v>
+        <v>73500.162444000001</v>
       </c>
       <c r="Q24" s="1">
         <v>20.416712</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.500000</v>
+        <v>-127.5</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>73510.329683</v>
+        <v>73510.329683000004</v>
       </c>
       <c r="V24" s="1">
-        <v>20.419536</v>
+        <v>20.419536000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.120000</v>
+        <v>1213.1199999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.586000</v>
+        <v>-107.586</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>73520.527682</v>
@@ -6210,315 +6626,315 @@
         <v>20.422369</v>
       </c>
       <c r="AB24" s="1">
-        <v>1221.250000</v>
+        <v>1221.25</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.122100</v>
+        <v>-91.122100000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>73530.748244</v>
+        <v>73530.748244000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.425208</v>
+        <v>20.425208000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1226.530000</v>
+        <v>1226.53</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.616000</v>
+        <v>-86.616</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>73541.334885</v>
+        <v>73541.334885000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.428149</v>
+        <v>20.428149000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1233.910000</v>
+        <v>1233.9100000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.128800</v>
+        <v>-90.128799999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>73552.216582</v>
+        <v>73552.216581999994</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.431171</v>
+        <v>20.431170999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.094000</v>
+        <v>-102.09399999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>73563.320521</v>
+        <v>73563.320521000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.434256</v>
+        <v>20.434256000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.340000</v>
+        <v>1252.3399999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.435000</v>
+        <v>-121.435</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>73574.365962</v>
+        <v>73574.365961999996</v>
       </c>
       <c r="AZ24" s="1">
         <v>20.437324</v>
       </c>
       <c r="BA24" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.914000</v>
+        <v>-138.91399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>73584.997675</v>
+        <v>73584.997675000006</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.440277</v>
+        <v>20.440276999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1301.660000</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.681000</v>
+        <v>-220.68100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>73596.846603</v>
+        <v>73596.846602999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>20.443569</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.230000</v>
+        <v>1372.23</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.457000</v>
+        <v>-356.45699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>73608.268973</v>
+        <v>73608.268972999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.446741</v>
+        <v>20.446740999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.900000</v>
+        <v>1487.9</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.658000</v>
+        <v>-576.65800000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>73619.230559</v>
+        <v>73619.230559000003</v>
       </c>
       <c r="BT24" s="1">
         <v>20.449786</v>
       </c>
       <c r="BU24" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-824.625000</v>
+        <v>-824.625</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>73630.580015</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.452939</v>
+        <v>20.452939000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.660000</v>
+        <v>1774.66</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.190000</v>
+        <v>-1092.19</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>73644.061310</v>
+        <v>73644.061310000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.456684</v>
+        <v>20.456683999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2194.410000</v>
+        <v>2194.41</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1737.430000</v>
+        <v>-1737.43</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>73468.969541</v>
+        <v>73468.969540999999</v>
       </c>
       <c r="B25" s="1">
         <v>20.408047</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.600000</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-250.488000</v>
+        <v>-250.488</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>73479.443062</v>
+        <v>73479.443062000006</v>
       </c>
       <c r="G25" s="1">
-        <v>20.410956</v>
+        <v>20.410955999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.650000</v>
+        <v>1170.6500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-210.951000</v>
+        <v>-210.95099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>73489.863017</v>
+        <v>73489.863016999996</v>
       </c>
       <c r="L25" s="1">
-        <v>20.413851</v>
+        <v>20.413851000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.110000</v>
+        <v>1197.1099999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.039000</v>
+        <v>-149.03899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>73500.513822</v>
+        <v>73500.513821999994</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.416809</v>
+        <v>20.416809000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.564000</v>
+        <v>-127.56399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>73510.679422</v>
+        <v>73510.679422000001</v>
       </c>
       <c r="V25" s="1">
-        <v>20.419633</v>
+        <v>20.419633000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.180000</v>
+        <v>1213.18</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.477000</v>
+        <v>-107.477</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>73520.958208</v>
+        <v>73520.958207999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.422488</v>
+        <v>20.422488000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.032000</v>
+        <v>-91.031999999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>73531.030962</v>
+        <v>73531.030962000004</v>
       </c>
       <c r="AF25" s="1">
         <v>20.425286</v>
       </c>
       <c r="AG25" s="1">
-        <v>1226.440000</v>
+        <v>1226.44</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.760700</v>
+        <v>-86.7607</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>73541.599220</v>
+        <v>73541.599220000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.428222</v>
+        <v>20.428222000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1233.900000</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.141000</v>
+        <v>-90.141000000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>73552.577670</v>
+        <v>73552.577669999999</v>
       </c>
       <c r="AP25" s="1">
         <v>20.431272</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1242.110000</v>
+        <v>1242.1099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>73563.689543</v>
@@ -6527,377 +6943,378 @@
         <v>20.434358</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>73574.723793</v>
+        <v>73574.723792999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.437423</v>
+        <v>20.437422999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1260.920000</v>
+        <v>1260.92</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.890000</v>
+        <v>-138.88999999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>73585.716876</v>
+        <v>73585.716876000006</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.440477</v>
+        <v>20.440477000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.731000</v>
+        <v>-220.73099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>73597.221692</v>
+        <v>73597.221692000006</v>
       </c>
       <c r="BJ25" s="1">
         <v>20.443673</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.140000</v>
+        <v>1372.14</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.500000</v>
+        <v>-356.5</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>73608.658830</v>
+        <v>73608.65883</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.446850</v>
+        <v>20.446850000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.890000</v>
+        <v>1487.89</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.689000</v>
+        <v>-576.68899999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>73619.640255</v>
+        <v>73619.640255000006</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.449900</v>
+        <v>20.4499</v>
       </c>
       <c r="BU25" s="1">
-        <v>1621.610000</v>
+        <v>1621.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-824.610000</v>
+        <v>-824.61</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>73631.319582</v>
+        <v>73631.319581999996</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.453144</v>
+        <v>20.453144000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.580000</v>
+        <v>1774.58</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.030000</v>
+        <v>-1092.03</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>73644.283485</v>
+        <v>73644.283485000007</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.456745</v>
+        <v>20.456745000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>2194.190000</v>
+        <v>2194.19</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1737.900000</v>
+        <v>-1737.9</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>73469.317733</v>
+        <v>73469.317733000003</v>
       </c>
       <c r="B26" s="1">
         <v>20.408144</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.760000</v>
+        <v>1149.76</v>
       </c>
       <c r="D26" s="1">
-        <v>-250.963000</v>
+        <v>-250.96299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>73479.787286</v>
+        <v>73479.787286000006</v>
       </c>
       <c r="G26" s="1">
-        <v>20.411052</v>
+        <v>20.411052000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.900000</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-210.918000</v>
+        <v>-210.91800000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>73490.206776</v>
+        <v>73490.206776000006</v>
       </c>
       <c r="L26" s="1">
-        <v>20.413946</v>
+        <v>20.413945999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.859000</v>
+        <v>-148.85900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>73500.938224</v>
+        <v>73500.938223999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.416927</v>
+        <v>20.416927000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.528000</v>
+        <v>-127.52800000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>73511.106706</v>
+        <v>73511.106706000006</v>
       </c>
       <c r="V26" s="1">
-        <v>20.419752</v>
+        <v>20.419751999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.110000</v>
+        <v>1213.1099999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.512000</v>
+        <v>-107.512</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>73521.228528</v>
+        <v>73521.228528000007</v>
       </c>
       <c r="AA26" s="1">
         <v>20.422563</v>
       </c>
       <c r="AB26" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.964400</v>
+        <v>-90.964399999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>73531.373698</v>
+        <v>73531.373697999996</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.425382</v>
+        <v>20.425381999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1226.430000</v>
+        <v>1226.43</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.638000</v>
+        <v>-86.638000000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>73541.950917</v>
+        <v>73541.950916999995</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.428320</v>
+        <v>20.428319999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1233.930000</v>
+        <v>1233.93</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.151400</v>
+        <v>-90.151399999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>73552.936774</v>
+        <v>73552.936774000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.431371</v>
+        <v>20.431370999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.118000</v>
+        <v>-102.11799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>73564.414694</v>
+        <v>73564.414694000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.434560</v>
+        <v>20.434560000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.310000</v>
+        <v>1252.31</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.425000</v>
+        <v>-121.425</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>73575.442248</v>
+        <v>73575.442248000007</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.437623</v>
+        <v>20.437622999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1260.930000</v>
+        <v>1260.93</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.900000</v>
+        <v>-138.9</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>73586.076970</v>
+        <v>73586.076969999995</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.440577</v>
+        <v>20.440577000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1301.670000</v>
+        <v>1301.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.706000</v>
+        <v>-220.70599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>73597.597051</v>
+        <v>73597.597051000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.443777</v>
+        <v>20.443777000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.130000</v>
+        <v>1372.13</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.465000</v>
+        <v>-356.46499999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>73609.078443</v>
+        <v>73609.078443000006</v>
       </c>
       <c r="BO26" s="1">
         <v>20.446966</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.850000</v>
+        <v>1487.85</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.666000</v>
+        <v>-576.66600000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>73620.387228</v>
+        <v>73620.387228000007</v>
       </c>
       <c r="BT26" s="1">
         <v>20.450108</v>
       </c>
       <c r="BU26" s="1">
-        <v>1621.490000</v>
+        <v>1621.49</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.463000</v>
+        <v>-824.46299999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>73631.444079</v>
+        <v>73631.444078999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.453179</v>
+        <v>20.453178999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.640000</v>
+        <v>1774.64</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.120000</v>
+        <v>-1092.1199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>73644.803324</v>
+        <v>73644.803323999993</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.456890</v>
+        <v>20.456890000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2192.860000</v>
+        <v>2192.86</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1736.340000</v>
+        <v>-1736.34</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>